--- a/Doc/spring backlog.xlsx
+++ b/Doc/spring backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大学\研一\敏捷软件开发\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333D6BD6-9CC7-4134-B077-F42066DE0F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D87E45-F283-4976-BB59-16C462624159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="40">
   <si>
     <t>User Story ID</t>
   </si>
@@ -55,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>具体实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单元测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,11 +123,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
+    <t>后端具体实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据指定条件搜索博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端具体设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据分类查看博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐最热门的多个标签分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热力值计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐最新的博客列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐最热门的博客列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -188,7 +232,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,454 +530,853 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.19921875" customWidth="1"/>
     <col min="2" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.265625" customWidth="1"/>
-    <col min="5" max="5" width="16.46484375" customWidth="1"/>
+    <col min="4" max="4" width="15.265625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.46484375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="9">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="9">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D4" s="9">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="9">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9">
+        <v>5</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D9" s="9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="F9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="9">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="9">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9">
+        <v>5</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="9">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="9">
+        <v>10</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="9">
+        <v>10</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="9">
+        <v>5</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="9">
+        <v>5</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="9">
+        <v>5</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="9">
+        <v>5</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="9">
+        <v>5</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="9">
+        <v>5</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="9">
+        <v>5</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="9">
+        <v>5</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="9">
+        <v>10</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="9">
+        <v>5</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="9">
+        <v>5</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="9">
+        <v>10</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="9">
+        <v>10</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="9">
+        <v>5</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="9">
+        <v>5</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="9">
+        <v>5</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="7"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="9">
+        <v>5</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="9">
+        <v>5</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="7"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="9">
+        <v>5</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="9">
+        <v>5</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="9">
+        <v>5</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="7"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="9">
+        <v>10</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="7"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="9">
+        <v>5</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="7"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="9">
+        <v>5</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="9">
+        <v>10</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="9">
+        <v>10</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="7"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="9">
+        <v>5</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="7"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="9">
+        <v>5</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="9">
+        <v>10</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="7"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="9">
+        <v>10</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="7"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="9">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="E46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="7"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D47" s="9">
+        <v>10</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="F47" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="7"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D48" s="9">
+        <v>5</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s">
-        <v>28</v>
+      <c r="F48" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="22">
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A6:A9"/>
